--- a/biology/Botanique/Vicia_pannonica/Vicia_pannonica.xlsx
+++ b/biology/Botanique/Vicia_pannonica/Vicia_pannonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vesce de Hongrie
-Vicia pannonica est une espèce herbacée du genre Vicia connue sous le nom vernaculaire de Vesce de Hongrie ou de Vesce de Pannonie de la famille des Fabaceae[1].
+Vicia pannonica est une espèce herbacée du genre Vicia connue sous le nom vernaculaire de Vesce de Hongrie ou de Vesce de Pannonie de la famille des Fabaceae.
 </t>
         </is>
       </c>
@@ -512,11 +524,11 @@
           <t>Origine et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est originaire du sud de l’Europe centrale et de l’Asie occidentale, et est parfois cultivée comme culture fourragère pour faire du foin[2]. Elle peut aussi se comporter comme une espèce adventice[1].
-Distribution
-Cette espèce se rencontre dans les pays suivants[3] : Albanie, Algérie, Allemagne, Arménie, Autriche, Azerbaïdjan, Belgique, Biélorussie, Bosnie-Herzégovine, Bulgarie, Chypre, Croatie, Espagne, France, Grèce, Géorgie, Hongrie, Iran, Italie, Macédoine du Nord, Malte, Maroc, Moldavie, Monténégro, Pays-Bas, Roumanie, Russie, Serbie, Slovaquie, Slovénie, Suisse, Suède, Tchéquie, Turquie, Ukraine.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est originaire du sud de l’Europe centrale et de l’Asie occidentale, et est parfois cultivée comme culture fourragère pour faire du foin. Elle peut aussi se comporter comme une espèce adventice.
 </t>
         </is>
       </c>
@@ -542,13 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Liste des variétés</t>
+          <t>Origine et habitat</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Selon GBIF       (11 septembre 2023)[4] :
-Vicia pannonica var. purpurascens (DC.) W.D.J.Koch, 1835</t>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans les pays suivants : Albanie, Algérie, Allemagne, Arménie, Autriche, Azerbaïdjan, Belgique, Biélorussie, Bosnie-Herzégovine, Bulgarie, Chypre, Croatie, Espagne, France, Grèce, Géorgie, Hongrie, Iran, Italie, Macédoine du Nord, Malte, Maroc, Moldavie, Monténégro, Pays-Bas, Roumanie, Russie, Serbie, Slovaquie, Slovénie, Suisse, Suède, Tchéquie, Turquie, Ukraine.
+</t>
         </is>
       </c>
     </row>
@@ -573,14 +591,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (11 septembre 2023) :
+Vicia pannonica var. purpurascens (DC.) W.D.J.Koch, 1835</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vicia_pannonica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vicia_pannonica</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Vicia pannonica Crantz[4].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : vesce de Hongrie[4],[5],[6], vesce de Pannonie[4],[5],[6], vesce striée[5].
-Vicia pannonica a pour synonymes[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Vicia pannonica Crantz.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : vesce de Hongrie vesce de Pannonie vesce striée.
+Vicia pannonica a pour synonymes :
 Hypechusa pannonica Alef.
 Hypechusa purpurascens (DC.) Alef.
 Vicia hybrida Georgi
@@ -603,37 +656,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Vicia_pannonica</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vicia_pannonica</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est une plante herbacée annuelle avec une tige poilue et grimpante soutenue par des vrilles à l’extrémité de ses feuilles. Les feuilles sont chacune constituées de 10 à 20 folioles ovales ou oblongues mesurant jusqu’à 2,5 centimètres de longueur. L’inflorescence porte de deux à quatre fleurs ressemblant à celles des pois et mesurent chacune jusqu’à 2 centimètres de long. La corolle est jaune  ou violet et le dos de l'étendard  supérieur est recouvert de poils doux. Le fruit est une gousse velue de 2 à 3 centimètres de long.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -655,12 +677,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une plante herbacée annuelle avec une tige poilue et grimpante soutenue par des vrilles à l’extrémité de ses feuilles. Les feuilles sont chacune constituées de 10 à 20 folioles ovales ou oblongues mesurant jusqu’à 2,5 centimètres de longueur. L’inflorescence porte de deux à quatre fleurs ressemblant à celles des pois et mesurent chacune jusqu’à 2 centimètres de long. La corolle est jaune  ou violet et le dos de l'étendard  supérieur est recouvert de poils doux. Le fruit est une gousse velue de 2 à 3 centimètres de long.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vicia_pannonica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vicia_pannonica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ses sous-espèces sont[7]:
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ses sous-espèces sont:
 Vicia pannonica subsp. pannonica
 Vicia pannonica subsp. purpurascens
 Vicia pannonica subsp. striata</t>
